--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Col1a2-Itgb1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Col1a2-Itgb1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.67511079338898</v>
+        <v>8.723857666666666</v>
       </c>
       <c r="H2">
-        <v>2.67511079338898</v>
+        <v>26.171573</v>
       </c>
       <c r="I2">
-        <v>0.002256730769744214</v>
+        <v>0.007098432040951201</v>
       </c>
       <c r="J2">
-        <v>0.002256730769744214</v>
+        <v>0.007098432040951203</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N2">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O2">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P2">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q2">
-        <v>195.3603541315736</v>
+        <v>827.0204069452076</v>
       </c>
       <c r="R2">
-        <v>195.3603541315736</v>
+        <v>7443.183662506869</v>
       </c>
       <c r="S2">
-        <v>0.0003126994051162661</v>
+        <v>0.001193930410968171</v>
       </c>
       <c r="T2">
-        <v>0.0003126994051162661</v>
+        <v>0.001193930410968171</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.67511079338898</v>
+        <v>8.723857666666666</v>
       </c>
       <c r="H3">
-        <v>2.67511079338898</v>
+        <v>26.171573</v>
       </c>
       <c r="I3">
-        <v>0.002256730769744214</v>
+        <v>0.007098432040951201</v>
       </c>
       <c r="J3">
-        <v>0.002256730769744214</v>
+        <v>0.007098432040951203</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N3">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P3">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q3">
-        <v>387.5959118009241</v>
+        <v>1270.55451828338</v>
       </c>
       <c r="R3">
-        <v>387.5959118009241</v>
+        <v>11434.99066455042</v>
       </c>
       <c r="S3">
-        <v>0.0006203971710862983</v>
+        <v>0.001834239718188774</v>
       </c>
       <c r="T3">
-        <v>0.0006203971710862983</v>
+        <v>0.001834239718188775</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.67511079338898</v>
+        <v>8.723857666666666</v>
       </c>
       <c r="H4">
-        <v>2.67511079338898</v>
+        <v>26.171573</v>
       </c>
       <c r="I4">
-        <v>0.002256730769744214</v>
+        <v>0.007098432040951201</v>
       </c>
       <c r="J4">
-        <v>0.002256730769744214</v>
+        <v>0.007098432040951203</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N4">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O4">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P4">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q4">
-        <v>181.9603913452289</v>
+        <v>634.8872096495083</v>
       </c>
       <c r="R4">
-        <v>181.9603913452289</v>
+        <v>5713.984886845576</v>
       </c>
       <c r="S4">
-        <v>0.0002912510390417039</v>
+        <v>0.0009165567630128542</v>
       </c>
       <c r="T4">
-        <v>0.0002912510390417039</v>
+        <v>0.0009165567630128545</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.67511079338898</v>
+        <v>8.723857666666666</v>
       </c>
       <c r="H5">
-        <v>2.67511079338898</v>
+        <v>26.171573</v>
       </c>
       <c r="I5">
-        <v>0.002256730769744214</v>
+        <v>0.007098432040951201</v>
       </c>
       <c r="J5">
-        <v>0.002256730769744214</v>
+        <v>0.007098432040951203</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N5">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O5">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P5">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q5">
-        <v>204.2352257887814</v>
+        <v>666.3814931912922</v>
       </c>
       <c r="R5">
-        <v>204.2352257887814</v>
+        <v>5997.43343872163</v>
       </c>
       <c r="S5">
-        <v>0.0003269047801015256</v>
+        <v>0.0009620235768622024</v>
       </c>
       <c r="T5">
-        <v>0.0003269047801015256</v>
+        <v>0.0009620235768622029</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.67511079338898</v>
+        <v>8.723857666666666</v>
       </c>
       <c r="H6">
-        <v>2.67511079338898</v>
+        <v>26.171573</v>
       </c>
       <c r="I6">
-        <v>0.002256730769744214</v>
+        <v>0.007098432040951201</v>
       </c>
       <c r="J6">
-        <v>0.002256730769744214</v>
+        <v>0.007098432040951203</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N6">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O6">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P6">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q6">
-        <v>152.5126631649076</v>
+        <v>507.6141115305592</v>
       </c>
       <c r="R6">
-        <v>152.5126631649076</v>
+        <v>4568.527003775033</v>
       </c>
       <c r="S6">
-        <v>0.0002441161578374537</v>
+        <v>0.0007328185854948032</v>
       </c>
       <c r="T6">
-        <v>0.0002441161578374537</v>
+        <v>0.0007328185854948035</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.67511079338898</v>
+        <v>8.723857666666666</v>
       </c>
       <c r="H7">
-        <v>2.67511079338898</v>
+        <v>26.171573</v>
       </c>
       <c r="I7">
-        <v>0.002256730769744214</v>
+        <v>0.007098432040951201</v>
       </c>
       <c r="J7">
-        <v>0.002256730769744214</v>
+        <v>0.007098432040951203</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N7">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O7">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P7">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q7">
-        <v>288.2381115396296</v>
+        <v>1010.535831591419</v>
       </c>
       <c r="R7">
-        <v>288.2381115396296</v>
+        <v>9094.822484322773</v>
       </c>
       <c r="S7">
-        <v>0.0004613622165609664</v>
+        <v>0.001458862986424397</v>
       </c>
       <c r="T7">
-        <v>0.0004613622165609664</v>
+        <v>0.001458862986424397</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1057.59239341469</v>
+        <v>1065.000325333333</v>
       </c>
       <c r="H8">
-        <v>1057.59239341469</v>
+        <v>3195.000976</v>
       </c>
       <c r="I8">
-        <v>0.8921878308609239</v>
+        <v>0.8665698962346957</v>
       </c>
       <c r="J8">
-        <v>0.8921878308609239</v>
+        <v>0.8665698962346958</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N8">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O8">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P8">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q8">
-        <v>77234.79155142028</v>
+        <v>100961.8721565515</v>
       </c>
       <c r="R8">
-        <v>77234.79155142028</v>
+        <v>908656.8494089639</v>
       </c>
       <c r="S8">
-        <v>0.1236242301042424</v>
+        <v>0.1457538997873528</v>
       </c>
       <c r="T8">
-        <v>0.1236242301042424</v>
+        <v>0.1457538997873528</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1057.59239341469</v>
+        <v>1065.000325333333</v>
       </c>
       <c r="H9">
-        <v>1057.59239341469</v>
+        <v>3195.000976</v>
       </c>
       <c r="I9">
-        <v>0.8921878308609239</v>
+        <v>0.8665698962346957</v>
       </c>
       <c r="J9">
-        <v>0.8921878308609239</v>
+        <v>0.8665698962346958</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N9">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P9">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q9">
-        <v>153234.2096081862</v>
+        <v>155108.09862199</v>
       </c>
       <c r="R9">
-        <v>153234.2096081862</v>
+        <v>1395972.88759791</v>
       </c>
       <c r="S9">
-        <v>0.2452710858400157</v>
+        <v>0.2239222567872057</v>
       </c>
       <c r="T9">
-        <v>0.2452710858400157</v>
+        <v>0.2239222567872057</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1057.59239341469</v>
+        <v>1065.000325333333</v>
       </c>
       <c r="H10">
-        <v>1057.59239341469</v>
+        <v>3195.000976</v>
       </c>
       <c r="I10">
-        <v>0.8921878308609239</v>
+        <v>0.8665698962346957</v>
       </c>
       <c r="J10">
-        <v>0.8921878308609239</v>
+        <v>0.8665698962346958</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N10">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O10">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P10">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q10">
-        <v>71937.17967310079</v>
+        <v>77506.43243644913</v>
       </c>
       <c r="R10">
-        <v>71937.17967310079</v>
+        <v>697557.8919280422</v>
       </c>
       <c r="S10">
-        <v>0.1151447200713537</v>
+        <v>0.1118923861544536</v>
       </c>
       <c r="T10">
-        <v>0.1151447200713537</v>
+        <v>0.1118923861544536</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1057.59239341469</v>
+        <v>1065.000325333333</v>
       </c>
       <c r="H11">
-        <v>1057.59239341469</v>
+        <v>3195.000976</v>
       </c>
       <c r="I11">
-        <v>0.8921878308609239</v>
+        <v>0.8665698962346957</v>
       </c>
       <c r="J11">
-        <v>0.8921878308609239</v>
+        <v>0.8665698962346958</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N11">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O11">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P11">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q11">
-        <v>80743.43006478212</v>
+        <v>81351.22490094563</v>
       </c>
       <c r="R11">
-        <v>80743.43006478212</v>
+        <v>732161.0241085107</v>
       </c>
       <c r="S11">
-        <v>0.1292402578841539</v>
+        <v>0.1174429319555897</v>
       </c>
       <c r="T11">
-        <v>0.1292402578841539</v>
+        <v>0.1174429319555897</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1057.59239341469</v>
+        <v>1065.000325333333</v>
       </c>
       <c r="H12">
-        <v>1057.59239341469</v>
+        <v>3195.000976</v>
       </c>
       <c r="I12">
-        <v>0.8921878308609239</v>
+        <v>0.8665698962346957</v>
       </c>
       <c r="J12">
-        <v>0.8921878308609239</v>
+        <v>0.8665698962346958</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N12">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O12">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P12">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q12">
-        <v>60295.15968506262</v>
+        <v>61969.05252013358</v>
       </c>
       <c r="R12">
-        <v>60295.15968506262</v>
+        <v>557721.4726812022</v>
       </c>
       <c r="S12">
-        <v>0.09651016783175545</v>
+        <v>0.08946180253998627</v>
       </c>
       <c r="T12">
-        <v>0.09651016783175545</v>
+        <v>0.0894618025399863</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1057.59239341469</v>
+        <v>1065.000325333333</v>
       </c>
       <c r="H13">
-        <v>1057.59239341469</v>
+        <v>3195.000976</v>
       </c>
       <c r="I13">
-        <v>0.8921878308609239</v>
+        <v>0.8665698962346957</v>
       </c>
       <c r="J13">
-        <v>0.8921878308609239</v>
+        <v>0.8665698962346958</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N13">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O13">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P13">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q13">
-        <v>113953.573440725</v>
+        <v>123365.2623102768</v>
       </c>
       <c r="R13">
-        <v>113953.573440725</v>
+        <v>1110287.360792491</v>
       </c>
       <c r="S13">
-        <v>0.1823973691294026</v>
+        <v>0.1780966190101078</v>
       </c>
       <c r="T13">
-        <v>0.1823973691294026</v>
+        <v>0.1780966190101078</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.653441485430622</v>
+        <v>0.8450703333333333</v>
       </c>
       <c r="H14">
-        <v>0.653441485430622</v>
+        <v>2.535211</v>
       </c>
       <c r="I14">
-        <v>0.0005512450213437673</v>
+        <v>0.0006876171712327699</v>
       </c>
       <c r="J14">
-        <v>0.0005512450213437673</v>
+        <v>0.0006876171712327699</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N14">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O14">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P14">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q14">
-        <v>47.72010202847164</v>
+        <v>80.11254168452032</v>
       </c>
       <c r="R14">
-        <v>47.72010202847164</v>
+        <v>721.0128751606831</v>
       </c>
       <c r="S14">
-        <v>7.638216864789631E-05</v>
+        <v>0.0001156547033348369</v>
       </c>
       <c r="T14">
-        <v>7.638216864789631E-05</v>
+        <v>0.0001156547033348369</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.653441485430622</v>
+        <v>0.8450703333333333</v>
       </c>
       <c r="H15">
-        <v>0.653441485430622</v>
+        <v>2.535211</v>
       </c>
       <c r="I15">
-        <v>0.0005512450213437673</v>
+        <v>0.0006876171712327699</v>
       </c>
       <c r="J15">
-        <v>0.0005512450213437673</v>
+        <v>0.0006876171712327699</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N15">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P15">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q15">
-        <v>94.67691916908382</v>
+        <v>123.0771948958409</v>
       </c>
       <c r="R15">
-        <v>94.67691916908382</v>
+        <v>1107.694754062568</v>
       </c>
       <c r="S15">
-        <v>0.0001515426015376401</v>
+        <v>0.0001776807496511226</v>
       </c>
       <c r="T15">
-        <v>0.0001515426015376401</v>
+        <v>0.0001776807496511226</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.653441485430622</v>
+        <v>0.8450703333333333</v>
       </c>
       <c r="H16">
-        <v>0.653441485430622</v>
+        <v>2.535211</v>
       </c>
       <c r="I16">
-        <v>0.0005512450213437673</v>
+        <v>0.0006876171712327699</v>
       </c>
       <c r="J16">
-        <v>0.0005512450213437673</v>
+        <v>0.0006876171712327699</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N16">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O16">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P16">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q16">
-        <v>44.44693233043029</v>
+        <v>61.50081378993688</v>
       </c>
       <c r="R16">
-        <v>44.44693233043029</v>
+        <v>553.5073241094319</v>
       </c>
       <c r="S16">
-        <v>7.114303903036507E-05</v>
+        <v>8.878582833804378E-05</v>
       </c>
       <c r="T16">
-        <v>7.114303903036507E-05</v>
+        <v>8.878582833804378E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.653441485430622</v>
+        <v>0.8450703333333333</v>
       </c>
       <c r="H17">
-        <v>0.653441485430622</v>
+        <v>2.535211</v>
       </c>
       <c r="I17">
-        <v>0.0005512450213437673</v>
+        <v>0.0006876171712327699</v>
       </c>
       <c r="J17">
-        <v>0.0005512450213437673</v>
+        <v>0.0006876171712327699</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N17">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O17">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P17">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q17">
-        <v>49.8879409579932</v>
+        <v>64.55162980593444</v>
       </c>
       <c r="R17">
-        <v>49.8879409579932</v>
+        <v>580.9646682534101</v>
       </c>
       <c r="S17">
-        <v>7.985207402692082E-05</v>
+        <v>9.319014773473499E-05</v>
       </c>
       <c r="T17">
-        <v>7.985207402692082E-05</v>
+        <v>9.3190147734735E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.653441485430622</v>
+        <v>0.8450703333333333</v>
       </c>
       <c r="H18">
-        <v>0.653441485430622</v>
+        <v>2.535211</v>
       </c>
       <c r="I18">
-        <v>0.0005512450213437673</v>
+        <v>0.0006876171712327699</v>
       </c>
       <c r="J18">
-        <v>0.0005512450213437673</v>
+        <v>0.0006876171712327699</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N18">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O18">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P18">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q18">
-        <v>37.25382193954101</v>
+        <v>49.17201114764866</v>
       </c>
       <c r="R18">
-        <v>37.25382193954101</v>
+        <v>442.548100328838</v>
       </c>
       <c r="S18">
-        <v>5.962953952753435E-05</v>
+        <v>7.098731661833493E-05</v>
       </c>
       <c r="T18">
-        <v>5.962953952753435E-05</v>
+        <v>7.098731661833493E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.653441485430622</v>
+        <v>0.8450703333333333</v>
       </c>
       <c r="H19">
-        <v>0.653441485430622</v>
+        <v>2.535211</v>
       </c>
       <c r="I19">
-        <v>0.0005512450213437673</v>
+        <v>0.0006876171712327699</v>
       </c>
       <c r="J19">
-        <v>0.0005512450213437673</v>
+        <v>0.0006876171712327699</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N19">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O19">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P19">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q19">
-        <v>70.40708004604352</v>
+        <v>97.88947558271387</v>
       </c>
       <c r="R19">
-        <v>70.40708004604352</v>
+        <v>881.0052802444249</v>
       </c>
       <c r="S19">
-        <v>0.0001126955985734105</v>
+        <v>0.0001413184255556967</v>
       </c>
       <c r="T19">
-        <v>0.0001126955985734105</v>
+        <v>0.0001413184255556967</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.65909260665672</v>
+        <v>1.780731666666667</v>
       </c>
       <c r="H20">
-        <v>1.65909260665672</v>
+        <v>5.342195</v>
       </c>
       <c r="I20">
-        <v>0.001399615053159756</v>
+        <v>0.001448946464051256</v>
       </c>
       <c r="J20">
-        <v>0.001399615053159756</v>
+        <v>0.001448946464051256</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N20">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O20">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P20">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q20">
-        <v>121.1616804711546</v>
+        <v>168.8130966709817</v>
       </c>
       <c r="R20">
-        <v>121.1616804711546</v>
+        <v>1519.317870038835</v>
       </c>
       <c r="S20">
-        <v>0.0001939348726850712</v>
+        <v>0.0002437075170003007</v>
       </c>
       <c r="T20">
-        <v>0.0001939348726850712</v>
+        <v>0.0002437075170003007</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.65909260665672</v>
+        <v>1.780731666666667</v>
       </c>
       <c r="H21">
-        <v>1.65909260665672</v>
+        <v>5.342195</v>
       </c>
       <c r="I21">
-        <v>0.001399615053159756</v>
+        <v>0.001448946464051256</v>
       </c>
       <c r="J21">
-        <v>0.001399615053159756</v>
+        <v>0.001448946464051256</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N21">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O21">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P21">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q21">
-        <v>240.385375150994</v>
+        <v>259.3481864770177</v>
       </c>
       <c r="R21">
-        <v>240.385375150994</v>
+        <v>2334.13367829316</v>
       </c>
       <c r="S21">
-        <v>0.0003847677495390953</v>
+        <v>0.0003744087621829027</v>
       </c>
       <c r="T21">
-        <v>0.0003847677495390953</v>
+        <v>0.0003744087621829028</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.65909260665672</v>
+        <v>1.780731666666667</v>
       </c>
       <c r="H22">
-        <v>1.65909260665672</v>
+        <v>5.342195</v>
       </c>
       <c r="I22">
-        <v>0.001399615053159756</v>
+        <v>0.001448946464051256</v>
       </c>
       <c r="J22">
-        <v>0.001399615053159756</v>
+        <v>0.001448946464051256</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N22">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O22">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P22">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q22">
-        <v>112.8510791894278</v>
+        <v>129.5944755385378</v>
       </c>
       <c r="R22">
-        <v>112.8510791894278</v>
+        <v>1166.35027984684</v>
       </c>
       <c r="S22">
-        <v>0.0001806326851019947</v>
+        <v>0.0001870894407677924</v>
       </c>
       <c r="T22">
-        <v>0.0001806326851019947</v>
+        <v>0.0001870894407677924</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.65909260665672</v>
+        <v>1.780731666666667</v>
       </c>
       <c r="H23">
-        <v>1.65909260665672</v>
+        <v>5.342195</v>
       </c>
       <c r="I23">
-        <v>0.001399615053159756</v>
+        <v>0.001448946464051256</v>
       </c>
       <c r="J23">
-        <v>0.001399615053159756</v>
+        <v>0.001448946464051256</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N23">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O23">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P23">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q23">
-        <v>126.6658390233494</v>
+        <v>136.0231530989389</v>
       </c>
       <c r="R23">
-        <v>126.6658390233494</v>
+        <v>1224.20837789045</v>
       </c>
       <c r="S23">
-        <v>0.0002027449872683902</v>
+        <v>0.0001963702197875296</v>
       </c>
       <c r="T23">
-        <v>0.0002027449872683902</v>
+        <v>0.0001963702197875296</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.65909260665672</v>
+        <v>1.780731666666667</v>
       </c>
       <c r="H24">
-        <v>1.65909260665672</v>
+        <v>5.342195</v>
       </c>
       <c r="I24">
-        <v>0.001399615053159756</v>
+        <v>0.001448946464051256</v>
       </c>
       <c r="J24">
-        <v>0.001399615053159756</v>
+        <v>0.001448946464051256</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N24">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O24">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P24">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q24">
-        <v>94.5877204427369</v>
+        <v>103.6152304849233</v>
       </c>
       <c r="R24">
-        <v>94.5877204427369</v>
+        <v>932.53707436431</v>
       </c>
       <c r="S24">
-        <v>0.000151399827489191</v>
+        <v>0.0001495844282396557</v>
       </c>
       <c r="T24">
-        <v>0.000151399827489191</v>
+        <v>0.0001495844282396557</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.65909260665672</v>
+        <v>1.780731666666667</v>
       </c>
       <c r="H25">
-        <v>1.65909260665672</v>
+        <v>5.342195</v>
       </c>
       <c r="I25">
-        <v>0.001399615053159756</v>
+        <v>0.001448946464051256</v>
       </c>
       <c r="J25">
-        <v>0.001399615053159756</v>
+        <v>0.001448946464051256</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N25">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O25">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P25">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q25">
-        <v>178.7640799752696</v>
+        <v>206.2726404274028</v>
       </c>
       <c r="R25">
-        <v>178.7640799752696</v>
+        <v>1856.453763846625</v>
       </c>
       <c r="S25">
-        <v>0.0002861349310760136</v>
+        <v>0.0002977860960730745</v>
       </c>
       <c r="T25">
-        <v>0.0002861349310760136</v>
+        <v>0.0002977860960730745</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.114816711759854</v>
+        <v>0.2508443333333333</v>
       </c>
       <c r="H26">
-        <v>0.114816711759854</v>
+        <v>0.752533</v>
       </c>
       <c r="I26">
-        <v>9.685969154984395E-05</v>
+        <v>0.0002041071187839237</v>
       </c>
       <c r="J26">
-        <v>9.685969154984395E-05</v>
+        <v>0.0002041071187839237</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N26">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O26">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P26">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q26">
-        <v>8.384936252009028</v>
+        <v>23.78000542419434</v>
       </c>
       <c r="R26">
-        <v>8.384936252009028</v>
+        <v>214.020048817749</v>
       </c>
       <c r="S26">
-        <v>1.342117027580307E-05</v>
+        <v>3.433007385368509E-05</v>
       </c>
       <c r="T26">
-        <v>1.342117027580307E-05</v>
+        <v>3.43300738536851E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.114816711759854</v>
+        <v>0.2508443333333333</v>
       </c>
       <c r="H27">
-        <v>0.114816711759854</v>
+        <v>0.752533</v>
       </c>
       <c r="I27">
-        <v>9.685969154984395E-05</v>
+        <v>0.0002041071187839237</v>
       </c>
       <c r="J27">
-        <v>9.685969154984395E-05</v>
+        <v>0.0002041071187839237</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N27">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O27">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P27">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q27">
-        <v>16.63575512256307</v>
+        <v>36.53331052387822</v>
       </c>
       <c r="R27">
-        <v>16.63575512256307</v>
+        <v>328.799794714904</v>
       </c>
       <c r="S27">
-        <v>2.662766841107306E-05</v>
+        <v>5.274141977815979E-05</v>
       </c>
       <c r="T27">
-        <v>2.662766841107306E-05</v>
+        <v>5.27414197781598E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.114816711759854</v>
+        <v>0.2508443333333333</v>
       </c>
       <c r="H28">
-        <v>0.114816711759854</v>
+        <v>0.752533</v>
       </c>
       <c r="I28">
-        <v>9.685969154984395E-05</v>
+        <v>0.0002041071187839237</v>
       </c>
       <c r="J28">
-        <v>9.685969154984395E-05</v>
+        <v>0.0002041071187839237</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N28">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O28">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P28">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q28">
-        <v>7.809805057953546</v>
+        <v>18.25543984456622</v>
       </c>
       <c r="R28">
-        <v>7.809805057953546</v>
+        <v>164.298958601096</v>
       </c>
       <c r="S28">
-        <v>1.250059873484531E-05</v>
+        <v>2.635451871923603E-05</v>
       </c>
       <c r="T28">
-        <v>1.250059873484531E-05</v>
+        <v>2.635451871923603E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.114816711759854</v>
+        <v>0.2508443333333333</v>
       </c>
       <c r="H29">
-        <v>0.114816711759854</v>
+        <v>0.752533</v>
       </c>
       <c r="I29">
-        <v>9.685969154984395E-05</v>
+        <v>0.0002041071187839237</v>
       </c>
       <c r="J29">
-        <v>9.685969154984395E-05</v>
+        <v>0.0002041071187839237</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N29">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O29">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P29">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q29">
-        <v>8.765848916818854</v>
+        <v>19.16102116658111</v>
       </c>
       <c r="R29">
-        <v>8.765848916818854</v>
+        <v>172.44919049923</v>
       </c>
       <c r="S29">
-        <v>1.403087004941765E-05</v>
+        <v>2.766186382327283E-05</v>
       </c>
       <c r="T29">
-        <v>1.403087004941765E-05</v>
+        <v>2.766186382327284E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.114816711759854</v>
+        <v>0.2508443333333333</v>
       </c>
       <c r="H30">
-        <v>0.114816711759854</v>
+        <v>0.752533</v>
       </c>
       <c r="I30">
-        <v>9.685969154984395E-05</v>
+        <v>0.0002041071187839237</v>
       </c>
       <c r="J30">
-        <v>9.685969154984395E-05</v>
+        <v>0.0002041071187839237</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N30">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O30">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P30">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q30">
-        <v>6.545898035179689</v>
+        <v>14.59585062741266</v>
       </c>
       <c r="R30">
-        <v>6.545898035179689</v>
+        <v>131.362655646714</v>
       </c>
       <c r="S30">
-        <v>1.047755278009915E-05</v>
+        <v>2.107134212369126E-05</v>
       </c>
       <c r="T30">
-        <v>1.047755278009915E-05</v>
+        <v>2.107134212369126E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.114816711759854</v>
+        <v>0.2508443333333333</v>
       </c>
       <c r="H31">
-        <v>0.114816711759854</v>
+        <v>0.752533</v>
       </c>
       <c r="I31">
-        <v>9.685969154984395E-05</v>
+        <v>0.0002041071187839237</v>
       </c>
       <c r="J31">
-        <v>9.685969154984395E-05</v>
+        <v>0.0002041071187839237</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N31">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O31">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P31">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q31">
-        <v>12.37128280915957</v>
+        <v>29.05677702119722</v>
       </c>
       <c r="R31">
-        <v>12.37128280915957</v>
+        <v>261.510993190775</v>
       </c>
       <c r="S31">
-        <v>1.98018312986057E-05</v>
+        <v>4.194790048587874E-05</v>
       </c>
       <c r="T31">
-        <v>1.98018312986057E-05</v>
+        <v>4.194790048587874E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>122.697230412684</v>
+        <v>152.382926</v>
       </c>
       <c r="H32">
-        <v>122.697230412684</v>
+        <v>457.148778</v>
       </c>
       <c r="I32">
-        <v>0.1035077186032785</v>
+        <v>0.1239910009702851</v>
       </c>
       <c r="J32">
-        <v>0.1035077186032785</v>
+        <v>0.1239910009702851</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N32">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O32">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P32">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q32">
-        <v>8960.441729599721</v>
+        <v>14445.87867974403</v>
       </c>
       <c r="R32">
-        <v>8960.441729599721</v>
+        <v>130012.9081176962</v>
       </c>
       <c r="S32">
-        <v>0.01434234090575883</v>
+        <v>0.02085483468613588</v>
       </c>
       <c r="T32">
-        <v>0.01434234090575883</v>
+        <v>0.02085483468613588</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>122.697230412684</v>
+        <v>152.382926</v>
       </c>
       <c r="H33">
-        <v>122.697230412684</v>
+        <v>457.148778</v>
       </c>
       <c r="I33">
-        <v>0.1035077186032785</v>
+        <v>0.1239910009702851</v>
       </c>
       <c r="J33">
-        <v>0.1035077186032785</v>
+        <v>0.1239910009702851</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N33">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O33">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P33">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q33">
-        <v>17777.56084524803</v>
+        <v>22193.25698977382</v>
       </c>
       <c r="R33">
-        <v>17777.56084524803</v>
+        <v>199739.3129079645</v>
       </c>
       <c r="S33">
-        <v>0.02845527551093258</v>
+        <v>0.03203935987069109</v>
       </c>
       <c r="T33">
-        <v>0.02845527551093258</v>
+        <v>0.0320393598706911</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>122.697230412684</v>
+        <v>152.382926</v>
       </c>
       <c r="H34">
-        <v>122.697230412684</v>
+        <v>457.148778</v>
       </c>
       <c r="I34">
-        <v>0.1035077186032785</v>
+        <v>0.1239910009702851</v>
       </c>
       <c r="J34">
-        <v>0.1035077186032785</v>
+        <v>0.1239910009702851</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N34">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O34">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P34">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q34">
-        <v>8345.836037162344</v>
+        <v>11089.81535267684</v>
       </c>
       <c r="R34">
-        <v>8345.836037162344</v>
+        <v>99808.33817409154</v>
       </c>
       <c r="S34">
-        <v>0.01335858534665085</v>
+        <v>0.01600984412281837</v>
       </c>
       <c r="T34">
-        <v>0.01335858534665085</v>
+        <v>0.01600984412281837</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>122.697230412684</v>
+        <v>152.382926</v>
       </c>
       <c r="H35">
-        <v>122.697230412684</v>
+        <v>457.148778</v>
       </c>
       <c r="I35">
-        <v>0.1035077186032785</v>
+        <v>0.1239910009702851</v>
       </c>
       <c r="J35">
-        <v>0.1035077186032785</v>
+        <v>0.1239910009702851</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N35">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O35">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P35">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q35">
-        <v>9367.498579468698</v>
+        <v>11639.93793167169</v>
       </c>
       <c r="R35">
-        <v>9367.498579468698</v>
+        <v>104759.4413850452</v>
       </c>
       <c r="S35">
-        <v>0.01499388781438495</v>
+        <v>0.01680403018075165</v>
       </c>
       <c r="T35">
-        <v>0.01499388781438495</v>
+        <v>0.01680403018075165</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>122.697230412684</v>
+        <v>152.382926</v>
       </c>
       <c r="H36">
-        <v>122.697230412684</v>
+        <v>457.148778</v>
       </c>
       <c r="I36">
-        <v>0.1035077186032785</v>
+        <v>0.1239910009702851</v>
       </c>
       <c r="J36">
-        <v>0.1035077186032785</v>
+        <v>0.1239910009702851</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N36">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O36">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P36">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q36">
-        <v>6995.179945235169</v>
+        <v>8866.687943508436</v>
       </c>
       <c r="R36">
-        <v>6995.179945235169</v>
+        <v>79800.19149157591</v>
       </c>
       <c r="S36">
-        <v>0.0111966863352586</v>
+        <v>0.01280041978579728</v>
       </c>
       <c r="T36">
-        <v>0.0111966863352586</v>
+        <v>0.01280041978579728</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>122.697230412684</v>
+        <v>152.382926</v>
       </c>
       <c r="H37">
-        <v>122.697230412684</v>
+        <v>457.148778</v>
       </c>
       <c r="I37">
-        <v>0.1035077186032785</v>
+        <v>0.1239910009702851</v>
       </c>
       <c r="J37">
-        <v>0.1035077186032785</v>
+        <v>0.1239910009702851</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N37">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O37">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P37">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q37">
-        <v>13220.39373946497</v>
+        <v>17651.41210798568</v>
       </c>
       <c r="R37">
-        <v>13220.39373946497</v>
+        <v>158862.7089718711</v>
       </c>
       <c r="S37">
-        <v>0.02116094269029265</v>
+        <v>0.02548251232409086</v>
       </c>
       <c r="T37">
-        <v>0.02116094269029265</v>
+        <v>0.02548251232409087</v>
       </c>
     </row>
   </sheetData>
